--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Sectm1a-Cd7.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Sectm1a-Cd7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Cd7</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,40 +543,40 @@
         <v>0.301634</v>
       </c>
       <c r="I2">
-        <v>0.1015132383111393</v>
+        <v>0.5436002609563836</v>
       </c>
       <c r="J2">
-        <v>0.1015132383111393</v>
+        <v>0.5436002609563836</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.945712</v>
+        <v>0.3679763333333333</v>
       </c>
       <c r="N2">
-        <v>2.837136</v>
+        <v>1.103929</v>
       </c>
       <c r="O2">
-        <v>0.2211376233170924</v>
+        <v>0.4187915190780531</v>
       </c>
       <c r="P2">
-        <v>0.2211376233170924</v>
+        <v>0.4187915190780531</v>
       </c>
       <c r="Q2">
-        <v>0.09508629780266666</v>
+        <v>0.03699805777622222</v>
       </c>
       <c r="R2">
-        <v>0.8557766802239999</v>
+        <v>0.332982519986</v>
       </c>
       <c r="S2">
-        <v>0.02244839625534696</v>
+        <v>0.2276551790571499</v>
       </c>
       <c r="T2">
-        <v>0.02244839625534696</v>
+        <v>0.2276551790571499</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,7 +590,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -602,45 +605,45 @@
         <v>0.301634</v>
       </c>
       <c r="I3">
-        <v>0.1015132383111393</v>
+        <v>0.5436002609563836</v>
       </c>
       <c r="J3">
-        <v>0.1015132383111393</v>
+        <v>0.5436002609563836</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>3.330864666666667</v>
+        <v>0.371976</v>
       </c>
       <c r="N3">
-        <v>9.992594</v>
+        <v>1.115928</v>
       </c>
       <c r="O3">
-        <v>0.7788623766829076</v>
+        <v>0.4233435142130823</v>
       </c>
       <c r="P3">
-        <v>0.7788623766829076</v>
+        <v>0.4233435142130823</v>
       </c>
       <c r="Q3">
-        <v>0.3349006776217778</v>
+        <v>0.037400202928</v>
       </c>
       <c r="R3">
-        <v>3.014106098596</v>
+        <v>0.336601826352</v>
       </c>
       <c r="S3">
-        <v>0.07906484205579238</v>
+        <v>0.230129644800424</v>
       </c>
       <c r="T3">
-        <v>0.07906484205579238</v>
+        <v>0.230129644800424</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +652,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.421861</v>
+        <v>0.1005446666666667</v>
       </c>
       <c r="H4">
-        <v>1.265583</v>
+        <v>0.301634</v>
       </c>
       <c r="I4">
-        <v>0.4259248913634626</v>
+        <v>0.5436002609563836</v>
       </c>
       <c r="J4">
-        <v>0.4259248913634626</v>
+        <v>0.5436002609563836</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.945712</v>
+        <v>0.13871</v>
       </c>
       <c r="N4">
-        <v>2.837136</v>
+        <v>0.41613</v>
       </c>
       <c r="O4">
-        <v>0.2211376233170924</v>
+        <v>0.1578649667088647</v>
       </c>
       <c r="P4">
-        <v>0.2211376233170924</v>
+        <v>0.1578649667088647</v>
       </c>
       <c r="Q4">
-        <v>0.398959010032</v>
+        <v>0.01394655071333333</v>
       </c>
       <c r="R4">
-        <v>3.590631090288</v>
+        <v>0.12551895642</v>
       </c>
       <c r="S4">
-        <v>0.09418801818770689</v>
+        <v>0.08581543709880964</v>
       </c>
       <c r="T4">
-        <v>0.09418801818770688</v>
+        <v>0.08581543709880964</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +714,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -720,51 +723,51 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.421861</v>
+        <v>0.03475566666666666</v>
       </c>
       <c r="H5">
-        <v>1.265583</v>
+        <v>0.104267</v>
       </c>
       <c r="I5">
-        <v>0.4259248913634626</v>
+        <v>0.1879084201686124</v>
       </c>
       <c r="J5">
-        <v>0.4259248913634626</v>
+        <v>0.1879084201686124</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>3.330864666666667</v>
+        <v>0.3679763333333333</v>
       </c>
       <c r="N5">
-        <v>9.992594</v>
+        <v>1.103929</v>
       </c>
       <c r="O5">
-        <v>0.7788623766829076</v>
+        <v>0.4187915190780531</v>
       </c>
       <c r="P5">
-        <v>0.7788623766829076</v>
+        <v>0.4187915190780531</v>
       </c>
       <c r="Q5">
-        <v>1.405161899144667</v>
+        <v>0.01278926278255555</v>
       </c>
       <c r="R5">
-        <v>12.646457092302</v>
+        <v>0.115103365043</v>
       </c>
       <c r="S5">
-        <v>0.3317368731757557</v>
+        <v>0.07869445272997026</v>
       </c>
       <c r="T5">
-        <v>0.3317368731757557</v>
+        <v>0.07869445272997026</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -773,60 +776,60 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.468053</v>
+        <v>0.03475566666666666</v>
       </c>
       <c r="H6">
-        <v>1.404159</v>
+        <v>0.104267</v>
       </c>
       <c r="I6">
-        <v>0.4725618703253981</v>
+        <v>0.1879084201686124</v>
       </c>
       <c r="J6">
-        <v>0.4725618703253981</v>
+        <v>0.1879084201686124</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.945712</v>
+        <v>0.371976</v>
       </c>
       <c r="N6">
-        <v>2.837136</v>
+        <v>1.115928</v>
       </c>
       <c r="O6">
-        <v>0.2211376233170924</v>
+        <v>0.4233435142130823</v>
       </c>
       <c r="P6">
-        <v>0.2211376233170924</v>
+        <v>0.4233435142130823</v>
       </c>
       <c r="Q6">
-        <v>0.442643338736</v>
+        <v>0.012928273864</v>
       </c>
       <c r="R6">
-        <v>3.983790048624</v>
+        <v>0.116354464776</v>
       </c>
       <c r="S6">
-        <v>0.1045012088740385</v>
+        <v>0.0795498109444088</v>
       </c>
       <c r="T6">
-        <v>0.1045012088740385</v>
+        <v>0.0795498109444088</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +841,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.03475566666666666</v>
+      </c>
+      <c r="H7">
+        <v>0.104267</v>
+      </c>
+      <c r="I7">
+        <v>0.1879084201686124</v>
+      </c>
+      <c r="J7">
+        <v>0.1879084201686124</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.13871</v>
+      </c>
+      <c r="N7">
+        <v>0.41613</v>
+      </c>
+      <c r="O7">
+        <v>0.1578649667088647</v>
+      </c>
+      <c r="P7">
+        <v>0.1578649667088647</v>
+      </c>
+      <c r="Q7">
+        <v>0.004820958523333333</v>
+      </c>
+      <c r="R7">
+        <v>0.04338862671</v>
+      </c>
+      <c r="S7">
+        <v>0.02966415649423335</v>
+      </c>
+      <c r="T7">
+        <v>0.02966415649423335</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
         <v>1</v>
       </c>
-      <c r="G7">
-        <v>0.468053</v>
-      </c>
-      <c r="H7">
-        <v>1.404159</v>
-      </c>
-      <c r="I7">
-        <v>0.4725618703253981</v>
-      </c>
-      <c r="J7">
-        <v>0.4725618703253981</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.04966033333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.148981</v>
+      </c>
+      <c r="I8">
+        <v>0.268491318875004</v>
+      </c>
+      <c r="J8">
+        <v>0.268491318875004</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.3679763333333333</v>
+      </c>
+      <c r="N8">
+        <v>1.103929</v>
+      </c>
+      <c r="O8">
+        <v>0.4187915190780531</v>
+      </c>
+      <c r="P8">
+        <v>0.4187915190780531</v>
+      </c>
+      <c r="Q8">
+        <v>0.01827382737211111</v>
+      </c>
+      <c r="R8">
+        <v>0.164464446349</v>
+      </c>
+      <c r="S8">
+        <v>0.1124418872909329</v>
+      </c>
+      <c r="T8">
+        <v>0.1124418872909329</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
         <v>1</v>
       </c>
-      <c r="M7">
-        <v>3.330864666666667</v>
-      </c>
-      <c r="N7">
-        <v>9.992594</v>
-      </c>
-      <c r="O7">
-        <v>0.7788623766829076</v>
-      </c>
-      <c r="P7">
-        <v>0.7788623766829076</v>
-      </c>
-      <c r="Q7">
-        <v>1.559021199827333</v>
-      </c>
-      <c r="R7">
-        <v>14.031190798446</v>
-      </c>
-      <c r="S7">
-        <v>0.3680606614513595</v>
-      </c>
-      <c r="T7">
-        <v>0.3680606614513595</v>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.04966033333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.148981</v>
+      </c>
+      <c r="I9">
+        <v>0.268491318875004</v>
+      </c>
+      <c r="J9">
+        <v>0.268491318875004</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.371976</v>
+      </c>
+      <c r="N9">
+        <v>1.115928</v>
+      </c>
+      <c r="O9">
+        <v>0.4233435142130823</v>
+      </c>
+      <c r="P9">
+        <v>0.4233435142130823</v>
+      </c>
+      <c r="Q9">
+        <v>0.018472452152</v>
+      </c>
+      <c r="R9">
+        <v>0.166252069368</v>
+      </c>
+      <c r="S9">
+        <v>0.1136640584682495</v>
+      </c>
+      <c r="T9">
+        <v>0.1136640584682495</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.04966033333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.148981</v>
+      </c>
+      <c r="I10">
+        <v>0.268491318875004</v>
+      </c>
+      <c r="J10">
+        <v>0.268491318875004</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.13871</v>
+      </c>
+      <c r="N10">
+        <v>0.41613</v>
+      </c>
+      <c r="O10">
+        <v>0.1578649667088647</v>
+      </c>
+      <c r="P10">
+        <v>0.1578649667088647</v>
+      </c>
+      <c r="Q10">
+        <v>0.006888384836666667</v>
+      </c>
+      <c r="R10">
+        <v>0.06199546353</v>
+      </c>
+      <c r="S10">
+        <v>0.04238537311582168</v>
+      </c>
+      <c r="T10">
+        <v>0.04238537311582168</v>
       </c>
     </row>
   </sheetData>
